--- a/exp/empathy_intonation_perc/trials/lextale_trials.xlsx
+++ b/exp/empathy_intonation_perc/trials/lextale_trials.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>FALSA</t>
+          <t>FAKE</t>
         </is>
       </c>
     </row>
